--- a/PodBase_TestCases.xlsx
+++ b/PodBase_TestCases.xlsx
@@ -5,10 +5,20 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="GET Cars" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="POST Cars" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="PATCH Cars" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="GET Dealers" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="POST Dealers" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="PATCH Dealers" sheetId="6" state="visible" r:id="rId8"/>
+    <sheet name="DELETE Dealers" sheetId="7" state="visible" r:id="rId9"/>
+    <sheet name="GET Manufacturers" sheetId="8" state="visible" r:id="rId10"/>
+    <sheet name="POST Manufacturers" sheetId="9" state="visible" r:id="rId11"/>
+    <sheet name="PATCH Manufacturers" sheetId="10" state="visible" r:id="rId12"/>
+    <sheet name="DELETE Manufacturers" sheetId="11" state="visible" r:id="rId13"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="192">
   <si>
     <t xml:space="preserve">TEST CASE</t>
   </si>
@@ -31,10 +41,10 @@
     <t xml:space="preserve">STATUS</t>
   </si>
   <si>
-    <t xml:space="preserve"> #PBC001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Scenario: Test data on plain GET /cars endpoint.
+    <t xml:space="preserve"> #PBGETC001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: Test data on plain GET /cars endpoint
 Test Steps:
             User requests GET /cars endpoint
 Prerequisites: Test data contains 3 entities in database
@@ -46,11 +56,10 @@
     <t xml:space="preserve">PASS</t>
   </si>
   <si>
-    <t xml:space="preserve"> #PBC002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Case ID: #PBC002
-Test Scenario: Test querry functionality with _id paramater.
+    <t xml:space="preserve"> #PBGETC002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: Test querry functionality with _id paramater
 Test Steps:
             User requests data with path paramaters /cars?_id=683c7dc6a3f4f9b306341c02
 Prerequisites: Test data contains 3 entities in database
@@ -62,11 +71,10 @@
     <t xml:space="preserve">FAIL</t>
   </si>
   <si>
-    <t xml:space="preserve"> #PBC003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Case ID: #PBC003
-Test Scenario: Test querry functionality with status paramater.
+    <t xml:space="preserve"> #PBGETC003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: Test querry functionality with status paramater
 Test Steps: 
             User requests data with path paramater /cars?status=SUPPORTED
 Prerequisites: Test data contains atleast 1 entity with status=SUPPORTED
@@ -75,10 +83,10 @@
 Actual Results: Endpoint returns all available records</t>
   </si>
   <si>
-    <t xml:space="preserve"> #PBC004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Scenario: Test query functionality with manufacturerId paramater.
+    <t xml:space="preserve"> #PBGETC004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: Test query functionality with manufacturerId paramater
 Test Steps:
             User requests data with path paramater /cars?manufacturerId=683c78fc5c139f993d03c774
 Prerequisites: Test data contains atleast 1 entity with manufacturerId=683c78fc5c139f993d03c774
@@ -87,7 +95,7 @@
 Actual Results: Endpoint returns all available records</t>
   </si>
   <si>
-    <t xml:space="preserve"> #PBC005</t>
+    <t xml:space="preserve"> #PBGETC005</t>
   </si>
   <si>
     <t xml:space="preserve">Test Scenario: Test querry functionality with model paramater
@@ -99,7 +107,7 @@
 Actual Results: Endpoint returns all available records</t>
   </si>
   <si>
-    <t xml:space="preserve"> #PBC006</t>
+    <t xml:space="preserve"> #PBGETC006</t>
   </si>
   <si>
     <t xml:space="preserve">Test Scenario: Test non existing resources
@@ -110,7 +118,7 @@
 Actual Results: As expected</t>
   </si>
   <si>
-    <t xml:space="preserve"> #PBC007</t>
+    <t xml:space="preserve"> #PBGETC007</t>
   </si>
   <si>
     <t xml:space="preserve">Test Scenario: Test invalid querry parameters
@@ -119,6 +127,1176 @@
 Expected result: Status code 404
                            Response body contains error message
 Actual Results: Endpoint returns all available records</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #PBPOSTC001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: Test required endpoint parameters
+Test Steps:
+            User POST /cars endpoint without Body data
+Expected result: Response body contains validation messages
+                           ManufacturerId is required
+                           Model is required
+                           Entity was not created
+                           Status code 500
+Actual Results: As expected</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #PBPOSTC002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: Test POST data with null values
+Test Steps:
+            User POST /cars endpoint with incorrect data
+            Body contains  {"manufacturerId": "", "model": ""}
+Expected result: Response body contains error message
+                           Entity was not created
+                           Status code 500
+Actual Results: As expected</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #PBPOSTC003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: Test String manufactureId parameter validation
+Test Steps:
+             User POST /cars endpoint with incorrect data
+             Body contains {"manufacturerId": "683c78fc5c139f993d03c774sss", "model": "E92"}
+Expected result: Response body contains error message
+                           Entity was not created
+                           Status code 500
+Actual Results: Error message was received, but new entity was added</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #PBPOSTC004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expected result: Test Symbol manufactureId parameter validation
+Test Steps:
+             User POST /cars endpoint with incorrect data
+             Body contains {"manufacturerId": !@#, "model": "E92"}
+Expected result: Response body contains error message
+                           Entity was not created
+                           Status code 400
+Actual Results: As expected</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #PBPOSTC005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expected result: Test Number manufactureId parameter validation
+Test Steps:
+             User POST /cars endpoint with incorrect data
+             Body contains {"manufacturerId": 1234, "model": "E92"}
+Expected result: Response body contains error message
+                           Entity was not created
+                           Status code 400
+Actual Results: As expected</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #PBPOSTC006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expected result: Test String model parameter validation
+Test Steps:
+             User POST /cars endpoint with correct data
+             Body contains {"manufacturerId": “683c78fc5c139f993d03c774”, "model": "E92"}
+Expected result: Response body contains created entity with correct data
+                           Status code 200
+Actual Results: As expected</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #PBPOSTC007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expected result: Test Number model parameter validation
+Test Steps:
+             User POST /cars endpoint with correct data
+             Body contains {"manufacturerId": “683c78fc5c139f993d03c774”, "model": 123456}
+Expected result: Response body contains created entity with correct data
+                           Status code 200
+Actual Results: As expected</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #PBPOSTC008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: Test Symbol model parameter validation.
+Test Steps:
+             User POST /cars endpoint with incorrect data
+             Body contains {"manufacturerId": “683c78fc5c139f993d03c774”, "model": !@#$%}
+Expected result: Response body contains error message
+                           Entity was not created
+                           Status code 400
+Actual Results: Error message was received, but new entity was added</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #PBPOSTC009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: Test Long Number model parameter validation
+Test Steps:
+             User POST /cars endpoint with correct data
+             Body contains {"manufacturerId": “683c78fc5c139f993d03c774”, "model": 1 × 10^399}
+Expected result: Response body contains created entity with correct data
+                           Status code 200
+Actual Results: Entity was created, but model parameter changed to “Infinity”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #PBPOSTC010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: Test if non required parameters are created
+Test Steps:
+             User POST /cars endpoint with correct data
+             Body contains { "status": "UNSUPPORTED", 
+                                       "dealerId": "683c784e8f9b93aaec4558ca", 
+                                       "manufacturerId": "683c78fc5c139f993d03c774", 
+                                       "model": "E12"
+                                    }
+Expected result: Response body contains created entity with correct data
+                           Status code 200
+Actual Results: Entity was created, but status and dealerId has incorrect data {"status": "SUPPORTED", "dealerId": null,}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #PBPOSTC011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: Test if created entities is available in GET /cars endpoint
+Test Steps:
+             User POST /cars endpoint with correct data
+             Body contains { "manufacturerId": "683c78fc5c139f993d03c774", "model": "E12"}
+             User requests GET /cars endpoint
+Expected result: User can find his created entity.
+Actual Results: As expected</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #PBPOSTC012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: Test for duplication
+Test Steps:
+             User POST /cars endpoint with correct data
+             Body contains { "manufacturerId": "683c78fc5c139f993d03c774", "model": "E13"}
+             User sends POST requests n times
+Expected result: Response body contains error message
+                           Status code 400
+Actual Results: All entities were created successfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PASS/FAIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #PBPATCHC001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: Test endpoint functionality without Body data
+Test Steps:
+            User PATCH /cars/_id endpoint without Body data
+Expected result: Request response returns one item with exact _id
+                           UpdatedAt was incremented correctlly
+                           Status code 200
+Actual Results: As expected</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #PBPATCHC002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: Test endpoint functionality with incorrect _id
+Test Steps:
+            User PATCH /cars/1 endpoint with incorrect _id
+Expected result: Request response returns error message
+                           No changes has been made
+                           Status code 500
+Actual Results: As expected</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #PBPATCHC003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: Test endpoint functionality with correct Body data
+Test Steps:
+            User PATCH /cars/_id endpoint
+            Body data {"status": "SUPPORTED", "dealerId": "683c79735c139f993d03c776"}
+Expected result: Request response returns one item with exact _id
+                           Parameter status has been changed
+                           Parameter dealerId has been changed
+                           Parameter updatedAt was incremented correctly
+                           Status code 200
+Actual Results: As expected</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #PBPATCHC004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: Test endpoints required parameters
+Test Steps:
+            User PATCH /cars/_id endpoint
+            Body data {""}
+Expected result: Request response returns error message
+                           Parameter status is required
+                           Parameter dealerId is required
+                           Status code 500
+Actual Results: Response body returns entity instead of error message</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #PBPATCHC005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: Test endpoint update time with no changed data
+Test Steps:
+            User PATCH /cars/_id endpoint
+            Body data is empty
+Expected result: Request response shows one entity
+                           Parameter createdAt is not changed
+                           Parameter updatedAt is not changed
+                           Status code 200
+Actual Results: Time is updated after each request even if no changes were made. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #PBPATCHC006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: Test status parameter functionality with correct data
+Test Steps:
+            User PATCH /cars/_id endpoint
+            Body data {"status": "SUPPORTED"}
+Expected result: Request response shows updated entity
+                           Parameter status was updated
+                           Parameter updatedAt was updated
+                           Status code 200
+Actual Results: As expected</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #PBPATCHC007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: Test dealedId parameter functionality with correct data
+Test Steps:
+            User PATCH /cars/_id endpoint
+            Body data {"dealerId": "683c79735c139f993d03c776"}
+Prerequisites: Test data contains specific car with dealerId: 683c784e8f9b93aaec4558ca
+Expected result: Request response shows updated entity
+                           Parameter dealerId was updated
+                           Parameter updatedAt was updated
+                           Status code 200
+Actual Results: As expected</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #PBPATCHC008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: Test manufacturerId parameter functionality with correct data
+Test Steps:
+            User PATCH /cars/_id endpoint
+            Body data "manufacturerId": "685d782852cbade39c658ef2"
+Prerequisites: Test data contains specific car with manufacturerId: 683c78fc5c139f993d03c774
+Expected result: Request response shows updated entity
+                           Parameter manufacturerId was updated
+                           Parameter updatedAt was updated
+                           Status code 200
+Actual Results: Response data is returned correctlly, but manufacturerId is kept the same. 
+I guess the manufacturer is unique to specific car model.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #PBPATCHC009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: Test model parameter functionality with correct data
+Test Steps:
+            User PATCH /cars/_id endpoint
+            Body data "model": "e36"
+Prerequisites: Test data contains specific car with "model": "E36.1"
+Expected result: Request response shows updated entity
+                           Parameter manufacturerId was updated
+                           Parameter updatedAt was updated
+                           Status code 200
+Actual Results: Same as with manufacturerId. Also it seems that endpoint only updates three parameters
+Updating car {
+  _id: '683c7dc6a3f4f9b306341c02',
+  status: 'SUPPORTED',
+  dealerId: undefined
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #PBPATCHC010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: Test status parameter functionality with incorrect data
+Test Steps:
+            User PATCH /cars/_id endpoint
+            Body data {"status": "something"}
+Expected result: Request response shows error message
+                           No data was updated
+                           Status code 400
+Actual Results: Status was changed successfully without error message. As per code it should allow only two values</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #PBPATCHC011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: Test dealedId parameter functionality with incorrect data
+Test Steps:
+            User PATCH /cars/_id endpoint
+            Body data {"dealerId": "NewDealerID"}
+Prerequisites: Test data contains specific car with dealerId: null
+Expected result: Request response shows error message 
+                           Entity was not updated
+                           Status code 500
+Actual Results: Error message was received, but value vas updated.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #PBGETD001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: Test data on plain GET /dealers endpoint
+Test Steps:
+            User requests GET /dealers endpoint
+Prerequisites: Test data contains 2 entities in database
+Expected result: User sees response with JSON obj containing 2 entries
+                           Status code 200
+Actual Results: As expected</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #PBGETD002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: Test querry functionality with _id paramater
+Test Steps:
+            User requests data with path paramaters /dealers?_id=683c784e8f9b93aaec4558ca
+Prerequisites: Test data contains 2 entities in database
+Expected result: Endpoint returns only one entity _id "683c784e8f9b93aaec4558ca"
+                           Status code 200
+Actual Results: Endpoint returns all available records</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #PBGETD003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: Test querry functionality with name paramater
+Test Steps: 
+            User requests data with path paramater /dealers?name=Krasta Auto
+Prerequisites: Test data contains 1 entity in database
+Expected result: Endpoint returns only entities with /dealers?name=Krasta Auto
+                           Status code 200
+Actual Results: Endpoint returns all available records</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #PBGETD004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: Test querry functionality with manufacturerId paramater
+Test Steps:
+            User requests data with path paramater /dealers?manufacturerId=685d858623e9caaa2a7e0a75
+Prerequisites: Test data contains atleast 1 entity with manufacturerId=685d858623e9caaa2a7e0a75
+Expected result: Endpoint returns only entities with manufacturerId=685d858623e9caaa2a7e0a75
+                           Status code 200
+Actual Results: Endpoint returns all available records</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #PBGETD005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: Test querry functionality with carIds paramater
+Test Steps:
+            User requests data with path paramater /dealers?carIds=683c7dc6a3f4f9b306341c02
+Prerequisites: Test data contains atleast 1 entity with carIds=683c7dc6a3f4f9b306341c02
+Expected result: Endpoint returns only entities with carIds=683c7dc6a3f4f9b306341c02
+                           Status code 200
+Actual Results: Endpoint returns all available records</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #PBGETD006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: Test non existing resources
+Test Steps:
+            User requests data with path paramater /dealers/123
+Expected result: Status code 404
+                           Response body contains error message
+Actual Results: As expected</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #PBGETD007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: Test invalid querry parameters
+Test Steps:
+            User requests data with path paramaters /dealers?factory=Munich
+Expected result: Status code 404
+                           Response body contains error message
+Actual Results: Endpoint returns all available records</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: Test required endpoint parameters
+Test Steps:
+            User POST /dealers endpoint without Body data
+Expected result: Response body contains validation messages
+                           name is required
+                           ManufacturerId is required
+                           Entity was not created
+                           Status code 500
+Actual Results: As expected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: Test POST data with null values
+Test Steps:
+            User POST /cars endpoint with incorrect data
+            Body contains  {"name": "", "manufacturerId": ""}
+Expected result: Response body contains error message
+                           Entity was not created
+                           Status code 500
+Actual Results: As expected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: Test String name parameter validation
+Test Steps:
+             User POST /dealers endpoint with correct data
+             Body contains {"name": "Autoplius", "manufacturerId": "683c78fc5c139f993d03c774"}
+Expected result: Response body contains created entity
+                           Status code 200
+Actual Results: As expected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: Test String name parameter length
+Test Steps:
+             User POST /dealers endpoint with incorrect data
+             Body contains {"name": "aaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa", "manufacturerId": "683c78fc5c139f993d03c774"}
+Expected result: Response body contains error message
+                           Entity was not created
+                           Status code 400
+Actual Results: Dealer was created, as the field name has no length limitations. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expected result: Test Symbol name parameter validation
+Test Steps:
+             User POST /dealers endpoint with incorrect data
+             Body contains {"name": !@#, "manufacturerId": "683c78fc5c139f993d03c774"}
+Expected result: Response body contains error message
+                           Entity was not created
+                           Status code 400
+Actual Results: As expected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expected result: Test Number name parameter validation
+Test Steps:
+             User POST /dealers endpoint with incorrect data
+             Body contains {"name": 1234, "manufacturerId": "683c78fc5c139f993d03c774"}
+Expected result: Response body contains error message
+                           Entity was not created
+                           Status code 500
+Actual Results: Entity was created. I think name parameter should only allow string values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expected result: Test for name parameter unique value
+Test Steps:
+             User POST /dealers endpoint with incorrect data
+             Body contains {"name": “Autoplius”, "manufacturerId": "683c78fc5c139f993d03c774"}
+             After creating the first dealer, user sends intentical POST request.
+Expected result: Response body contains error message
+                           Entity was not created
+                           Status code 400
+Actual Results: Second dealer with the same name was created. It shlould check duplicate names.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expected result: Test String manufacturerId parameter validation with correct data
+Test Steps:
+             User POST /dealers endpoint with correct data
+             Body contains {"name": “Dealer1”, "manufacturerId": "683c78fc5c139f993d03c774"}
+Expected result: Response body contains created entity with correct data
+                           Status code 200
+Actual Results: As expected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expected result: Test String manufacturerId parameter validation with inccorect data
+Test Steps:
+             User POST /dealers endpoint with correct data
+             Body contains {"name": “Dealer2”, "manufacturerId": "aa"}
+Expected result: Response body contains error message
+                           Entity was not created
+                           Status code 500
+Actual Results: Error message was received, but dealer entity was created</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expected result: Test Number manufacturerId parameter validation
+Test Steps:
+             User POST /dealers endpoint with correct data
+             Body contains {"name": “Dealer2”, "manufacturerId": 1234}
+Expected result: Response body contains error message
+                           Entity was not created
+                           Status code 500
+Actual Results: Error message was received, but dealer entity was created</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: Test Symbol manufacturerId parameter validation.
+Test Steps:
+             User POST /dealers endpoint with incorrect data
+             Body contains {"manufacturerId": “Dealer3”, "model": !@#$%}
+Expected result: Response body contains error message
+                           Entity was not created
+                           Status code 500
+Actual Results: Error message was received, but dealer entity was created</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: Test if non required parameters are created
+Test Steps:
+             User POST /dealers endpoint with correct data
+             Body contains { 
+                                      "name": "Dealers 4", 
+                                      "manufacturerId": "683c78fc5c139f993d03c774", 
+                                      "carIds": ["685d804f23e9caaa2a7e0a5f", "685d808b23e9caaa2a7e0a63"]
+                                     }
+Expected result: Response body contains created entity with correct data
+                           Status code 200
+Actual Results: Entity was created, but carIds array was not populated</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #PBPOSTC013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: Test if created entities is available in GET /dealers endpoint
+Test Steps:
+             User POST /dealers  endpoint with correct data
+             Body contains { "name": "Dealers5", "manufacturerId": "683c78fc5c139f993d03c774"}
+             User requests GET /dealers endpoint
+Expected result: User can find his created entity.
+Actual Results: As expected</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #PBPOSTC014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: Test if POST /cars endpoint can be created with newly created dealer id
+Test Steps:
+             User POST /dealers endpoint with correct data
+             Body contains { "name": "Dealers6", "manufacturerId": "683c78fc5c139f993d03c774"}
+             Response body contains dealer _id: “685fafcfa55a40c8afeb8bae”
+             User requests POST /cars endpoint
+             Body contains { "manufacturerId": "683c78fc5c139f993d03c774" , "model": "E112" , "dealerId": "685fafcfa55a40c8afeb8bae"}
+             User requests GET /cars enpoint
+Expected result: User can find his created car with correct dealerId
+Actual Results: Car was created with dealerId null value</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #PBPOSTC015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: Test if PATCH /cars endpoint can be updated with newly created dealer id
+Test Steps:
+             User POST /dealers endpoint with correct data
+             Body contains { "name": "Dealers7", "manufacturerId": "683c78fc5c139f993d03c774"}
+             Response body contains dealer _id: “685fb3c3a55a40c8afeb8bbb”
+             User requests PATCH /cars endpoint
+             Body contains {"dealerId": "685fb3c3a55a40c8afeb8bbb"}
+             User requests GET /cars enpoint
+Expected result: User can find his created car with correct dealerId
+Actual Results: As expected</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #PBPATCHD001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: Test endpoint functionality without Body data
+Test Steps:
+            User PATCH /dealers/_id endpoint without Body data
+Expected result: Request response returns one item with exact _id
+                           UpdatedAt was incremented correctlly
+                           Status code 200
+Actual Results: As expected</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #PBPATCHD002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: Test endpoint functionality with incorrect _id
+Test Steps:
+            User PATCH /dealers/1 endpoint with incorrect _id
+Expected result: Request response returns error message
+                           No changes has been made
+                           Status code 500
+Actual Results: As expected</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #PBPATCHD003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: Test name parameter functionality
+Test Steps:
+            User PATCH /dealers/_id endpoint
+            Body data {"name": "newName"}
+Expected result: Request response returns one item with exact _id
+                           Parameter name has been changed correctly
+                           Parameter updatedAt was incremented correctly
+                           Status code 200
+Actual Results: As expected</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #PBPATCHD004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: Test existing name uptating with identical data
+Test Steps:
+            User PATCH /dealers/_id endpoint
+            Body data {"name": "newName"}
+Prerequisites: Dealer exists with {"name": "newName"}
+Expected result: Request response returns error message
+                           Status code 500
+Actual Results: As expected</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #PBPATCHD005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: Test name parameter funcionality with numbers
+Test Steps:
+            User PATCH /dealers/_id endpoint
+            Body data {"name": 123}
+Expected result: Request response returns one item with exact _id
+                           Parameter name has been changed correctly
+                           Parameter updatedAt was incremented correctly
+                           Status code 200
+Actual Results: As expected</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #PBPATCHD006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: Test existing name parameter funcionality with numbers
+Test Steps:
+            User PATCH /dealers/_id endpoint
+            Body data {"name": 123}
+Prerequisites: Dealer exists with {"name": 123}
+Expected result: Request response returns error message
+                           Status code 500
+Actual Results: Response returns updated entity. There is no name validation for numbers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #PBPATCHD007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: Test manufacturerId parameter funcionality
+Test Steps:
+            User PATCH /dealers/_id endpoint
+            Body data { "manufacturerId": "685fb9f3a55a40c8afeb8bec" }
+Prerequisites: Manufacturer exists with "manufacturerId": "685fb9f3a55a40c8afeb8bec"
+Expected result: Request response returns one item with exact _id
+                           Parameter manufacturerId has been changed correctly
+                           Parameter updatedAt was incremented correctly
+                           Status code 200
+Actual Results: Manufacturer id was not changed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #PBPATCHD008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: Test carIds parameter funcionality
+Test Steps:
+            User PATCH /dealers/_id endpoint
+            Body data { "carIds": ["683c7dc6a3f4f9b306341c02"] }
+Expected result: Request response returns one item with exact _id
+                           Parameter carIds has been changed correctly
+                           Parameter updatedAt was incremented correctly
+                           Status code 200
+Actual Results: carIds array has not been filled</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #PBDELETED001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: Test endpoint functionality
+Test Steps:
+            User DELETE /dealers/_id endpoint
+Expected result: Dealer with _id was deleted
+                           Status code 200
+Prerequisite: Dealer with "_id": "683c784e8f9b93aaec4558ca" is available
+Actual Results: As expected</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #PBDELETED002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: Test endpoint functionality with incorrect Dealer _id
+Test Steps:
+            User DELETE /dealers/1 endpoint
+Expected result: Response body contains error message
+                           No entity was deleted
+                           Status code 500
+Actual Results: No error message received. Application was killed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPIC FAIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #PBDELETED003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: Test endpoint functionality when only one Dealer is available
+Test Steps:
+            User DELETE /dealers/_id endpoint
+Expected result: Dealer with _id was deleted
+                           Empty object is returned
+                           Status code 200
+Prerequisite: Dealer with "_id": "683c79735c139f993d03c776" is available
+                     Only one entity is available in GET /dealers
+Actual Results: As expected</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #PBDELETED004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: Test endpoint functionality when deleting already deleted item
+Test Steps:
+            User DELETE /dealers/_id endpoint
+Expected result: Response boddy returs error message
+                           No entities were deleted
+                           Status code 500
+Prerequisite: Dealer with "_id": "685fc361044cbde8c91b120c" was already deleted
+Actual Results: Second delete kills the application</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #PBGETM001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: Test data on plain GET /manufacturers endpoint
+Test Steps:
+            User requests GET /manufacturers endpoint
+Prerequisites: Test data contains 3 entity in database
+Expected result: User sees response with JSON obj containing 3 entry
+                           Status code 200
+Actual Results: As expected</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #PBGETM002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: Test querry functionality with _id paramater
+Test Steps:
+            User requests data with path paramaters /manufacturers?_id=68603f6404e8234a9b75d261
+Prerequisites: Test data contains 3 entities in database
+Expected result: Endpoint returns only one entity _id "68603f6404e8234a9b75d261"
+                           Status code 200
+Actual Results: Endpoint returns all available entries</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #PBGETM003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: Test querry functionality with make paramater
+Test Steps: 
+            User requests data with path paramater /manufacturers?make=BMW
+Prerequisites: Test data contains atleast 1 entity with make=BMW
+Expected result: Endpoint returns only entities with make=BMW
+                           Status code 200
+Actual Results: Endpoint returns all available records</t>
+  </si>
+  <si>
+    <t xml:space="preserve">`</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #PBGETM004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: Test query functionality with supportedModelIds paramater
+Test Steps:
+User requests data with path paramater /manufacturers?supportedModelIds[683c7dc6a3f4f9b306341c02]
+Prerequisites: Test data contains atleast 1 entity with supportedModelIds[683c7dc6a3f4f9b306341c02]
+Expected result: Endpoint returns only entities with supportedModelIds[683c7dc6a3f4f9b306341c02]
+                           Status code 200
+Actual Results: Endpoint returns all available records</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #PBGETM006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: Test non existing resources
+Test Steps:
+            User requests data with path paramater /manufacturers/123
+Expected result: Status code 404
+                           Response body contains error message
+Actual Results: As expected</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #PBGETM007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: Test invalid querry parameters
+Test Steps:
+            User requests data with path paramaters /manufacturers?something=yes&amp;something2=no
+Expected result: Status code 404
+                           Response body contains error message
+Actual Results: Endpoint returns all available records</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #PBPOSTM001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: Test for required endpoint parameters
+Test Steps:
+            User POST /manufacturers endpoint without Body data
+Expected result: Response body contains error message
+                           Make parameter is required
+                           Entity was not created
+                           Status code 500
+Actual Results: As expected</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #PBPOSTM002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: Test POST data with null values
+Test Steps:
+            User POST /manufacturers endpoint without Body data
+            Body data {"make": ""}
+Expected result: Response body contains error message
+                           Entity was not created
+                           Status code 500
+Actual Results: As expected</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #PBPOSTM003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: Test String make parameter validation
+Test Steps:
+            User POST /manufacturers endpoint with correct data
+            Body contains {"make": "AUDI"}
+Expected result: Response body contains created entity
+                           Status code 200
+Actual Results: As expected</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #PBPOSTM004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: Test String make parameter length validation
+Test Steps:
+            User POST /manufacturers endpoint with incorrect data
+            Body contains {"make": "aaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa"}
+Expected result: Response body contains error message
+                           Entity was not created
+                           Status code 400
+Actual Results: Manufacturer was created, as the field name has no length limitations. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #PBPOSTM005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: Test Number name parameter validation
+Test Steps:
+             User POST /manufacturers endpoint with correct data
+             Body contains {"make":1234}
+Expected result: Response body contains created entity
+                           Status code 200
+Actual Results: As expected</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #PBPOSTM006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: Test for name parameter unique value
+Test Steps:
+            User POST /manufacturers endpoint with already available name
+            Body data {"make": "1234"}
+Expected result: Response body contains error message
+                           Entity was not created
+                           Status code 500
+Actual Results: As expected</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #PBPOSTM007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: Test for name parameter casing value
+Test Steps:
+            User POST /manufacturers endpoint with already available name
+            Body data {"make": "Audi"}
+Prerequisite: Manufacturers contain one entry with name “AUDI”
+Expected result: Response body contains created entity
+                           Status code 200
+Actual Results: As expected</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #PBPOSTM008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: Test dealerIds parameter functionality
+Test Steps:
+            User POST /manufacturers endpoint with correct array data
+            Body data { "make": "asdsaa" , "dealerIds": ["683c78fc5c139f993d03c774"] }
+Expected result: Manufacturer was created with correct dealerIds
+Actual Results: Entity was created with empty array</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #PBPOSTM009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: Test supportedModelIds parameter functionality
+Test Steps:
+            User POST /manufacturers endpoint with correct array data
+            Body data { "make": "asdsaa" , "supportedModelIds": ["683c78fc5c139f993d03c774"] }
+Expected result: Manufacturer was created with correct supportedModelIds
+Actual Results: Entity was created with empty array</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #PBPOSTM010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: Test if created entities is available in GET /manufacturers endpoint
+Test Steps:
+            User POST /manufacturers endpoint with correct body data
+            Body data {"make": "VOLVO"}
+            User requests GET /manufacturers endpoint
+Expected result: Created entity can be found 
+Actual Results: As expected</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #PBPOSTM011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: Test if POST /cars endpoint can be created with newly created manufacturerId
+Test Steps:
+            User POST /manufacturers endpoint with correct data
+            Body data {"make": "VOLVO"}
+            Response body contains {“_id”, “6860564512a441c65a1d5829”}
+            User requests POST /cars/_id endpoint
+            Body contains { "manufacturerId": "6860564512a441c65a1d5829","model": "E112" }
+Expected result: Response body contains created entity with exact manufacturerId
+                           Status code 200
+Actual Results: As expected</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #PBPOSTM012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: Test if POST /dealers endpoint can be created with newly created manufacturerId
+Test Steps:
+            User POST /manufacturers endpoint with correct data
+            Body data {"make": "TOYOTA"}
+            Response body contains {“_id”, “6860556312a441c65a1d5821”}
+            User requests POST /dealers/_id endpoint
+            Body contains { "name": "Dealers7" , "manufacturerId": "6860556312a441c65a1d5821" }
+Expected result: Response body contains created entity with exact manufacturerId
+                           Status code 200
+Actual Results: As expected</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #PBPOSTM013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: Test if PATCH /cars endpoint can be updated with newly created manufacturerId
+Test Steps:
+            User POST /manufacturers endpoint with correct data
+            Body data {"make": "Mazda"}
+            Response body contains {"_id": "6860539f12a441c65a1d580f"}
+            User requests PATCH /cars/_id endpoint
+            Body contains { "name": "Dealers8" , "manufacturerId": "6860539f12a441c65a1d580f" }
+Expected result: Response body contains updated entity with exact manufacturerId
+                           Status code 200
+Actual Results: PATCH /cars endpoint did not update manufacturerId</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #PBPOSTM014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: Test if PATCH /dealers endpoint can be updated with newly created manufacturerId
+Test Steps:
+            User POST /manufacturers endpoint with correct data
+            Body data {"make": "Suzuki"}
+            Response body contains {"_id": "6860519712a441c65a1d5804"}
+            User requests PATCH /dealers/_id endpoint
+            Body contains { "manufacturerId": "6860519712a441c65a1d5804" }
+Expected result: Response body contains updated entity with exact manufacturerId
+                           Status code 200
+Actual Results: PATCH /dealers endpoint did not update manufacturerId</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #PBPATCHM001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: Test endpoint functionality without Body data
+Test Steps:
+            User PATCH /manufacturers/_id endpoint without Body data
+Expected result: Request response returns one item with exact _id
+                           UpdatedAt was incremented correctlly
+                           Status code 200
+Actual Results: As expected</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #PBPATCHM002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: Test endpoint functionality with incorrect _id
+Test Steps:
+            User PATCH /manufacturers/1 endpoint with incorrect _id
+Expected result: Request response returns error message
+                           No changes has been made
+                           Status code 500
+Actual Results: As expected</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #PBPATCHM003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: Test make parameter functionality
+Test Steps:
+            User PATCH /manufacturers/_id endpoint
+            Body data {"make": "Toyota"}
+Prerequisites: DB contains manufacturer with make “TOYOTA”
+Expected result: Request response returns one item with exact _id
+                           Parameter make has been changed correctly
+                           Parameter updatedAt was incremented correctly
+                           Status code 200
+Actual Results: As expected</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #PBPATCHM004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: Test existing make parameter updating with identical data
+Test Steps:
+            User PATCH /manufacturers/_id endpoint
+            Body data {"make": "newName"}
+Prerequisites: Dealer exists with {"make": "newName"}
+Expected result: Request response returns error message
+                           Status code 500
+Actual Results: As expected</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #PBPATCHM005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: Test make parameter funcionality with numbers
+Test Steps:
+            User PATCH /manufacturers/_id endpoint
+            Body data {"make": 123}
+Expected result: Request response returns one item with exact _id
+                           Parameter make has been changed correctly
+                           Parameter updatedAt was incremented correctly
+                           Status code 200
+Actual Results: As expected</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #PBPATCHM006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: Test existing make parameter funcionality with numbers
+Test Steps:
+            User PATCH /manufacturers/_id endpoint
+            Body data {"make": 123}
+Prerequisites: Dealer exists with {"make": 123}
+Expected result: Request response returns error message
+                           Status code 500
+Actual Results: Response returns updated entity. There is no make validation for numbers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #PBPATCHM007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: Test dealerIds parameter funcionality with one item
+Test Steps:
+            User PATCH /manufacturers/_id endpoint
+            Body data { "make": "newManufacturer", "dealerIds": ["685fb9f3a55a40c8afeb8bec"] }
+Prerequisites: Manufacturer exists with "dealerIds": "685fb9f3a55a40c8afeb8bec"
+Expected result: Request response returns one item with exact _id
+                           Parameter dealerIds has been changed correctly
+                           Parameter updatedAt was incremented correctly
+                           Status code 200
+Actual Results: dealerIds was not changed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #PBPATCHM008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: Test dealerIds parameter funcionality with multiple items
+Test Steps:
+            User PATCH /manufacturers/_id endpoint
+            Body data { "make": "newManufacturer1", "dealerIds": ["6860fc62a80f99e9fbbae497", "6860fc70a80f99e9fbbae49a"]}
+Prerequisites: Manufacturer exists with "_id": "683c78fc5c139f993d03c774"
+Expected result: Request response returns one item with exact _id
+                           Parameter dealerIds has been changed correctly
+                           Parameter updatedAt was incremented correctly
+                           Status code 200
+Actual Results: dealerIds was not changed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #PBPATCHM009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: Test carIds parameter funcionality with one item
+Test Steps:
+            User PATCH /manufacturers/_id endpoint
+            Body data { "make": "newManufacturer2", "carIds": ["683c7dc6a3f4f9b306341c02"] }
+Expected result: Request response returns one item with exact _id
+                           Parameter carIds has been changed correctly
+                           Parameter updatedAt was incremented correctly
+                           Status code 200
+Actual Results: carIds array has not been filled</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #PBPATCHM010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: Test carIds parameter funcionality with multiple items
+Test Steps:
+            User PATCH /manufacturers/_id endpoint
+            Body data { "make": "newManufacturer3", "carIds": ["68610162a80f99e9fbbae4fa", “68610161a80f99e9fbbae4f6”] }
+Expected result: Request response returns one item with exact _id
+                           Parameter carIds has been changed correctly
+                           Parameter updatedAt was incremented correctly
+                           Status code 200
+Actual Results: carIds array has not been filled</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #PBDELETEM001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: Test endpoint functionality
+Test Steps:
+            User DELETE /manufacturers/_id endpoint
+Expected result: Manufacturer with _id was deleted
+                           Status code 200
+Prerequisite: Manufacturer with "_id": "683c78fc5c139f993d03c774" is available
+Actual Results: As expected</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #PBDELETEM002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: Test endpoint functionality with incorrect Manufacturer _id
+Test Steps:
+            User DELETE /manufacturers/1 endpoint
+Expected result: Response body contains error message
+                           No entity was deleted
+                           Status code 500
+Actual Results: No error message received. Application was killed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #PBDELETEM003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: Test endpoint functionality when only one Manufacturer is available
+Test Steps:
+            User DELETE /manufacturers/_id endpoint
+Expected result: Manufacturer with _id was deleted
+                           Empty object is returned
+                           Status code 200
+Prerequisite: manufacturer with "_id": "683c78fc5c139f993d03c774" is available
+                     Only one entity is available in GET /manufacturers
+Actual Results: As expected</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #PBDELETEM004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: Test endpoint functionality when deleting already deleted item
+Test Steps:
+            User DELETE /manufacturers/_id endpoint
+Expected result: Response boddy returs error message
+                           No entities were deleted
+                           Status code 500
+Prerequisite: manufacturer with "_id": "683c78fc5c139f993d03c774" was already deleted
+Actual Results: Second delete kills the application</t>
   </si>
 </sst>
 </file>
@@ -150,20 +1328,45 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00A933"/>
+        <bgColor rgb="FF008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF993300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -192,12 +1395,64 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -205,12 +1460,12 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -222,6 +1477,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF00A933"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -338,103 +1653,103 @@
   </sheetPr>
   <dimension ref="A2:C9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I8" activeCellId="0" sqref="I8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="81.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="91.21"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.53"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="4" style="2" width="11.53"/>
   </cols>
   <sheetData>
-    <row r="2" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="103" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" customFormat="false" ht="114.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="103" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="C3" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="114.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="103" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="C4" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="114.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="91.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="C5" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="114.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="91.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="C6" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="114.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="80.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="C7" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="91.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="80.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="C8" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="91.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="8" t="s">
         <v>8</v>
       </c>
     </row>
@@ -447,4 +1762,1404 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A2:C12"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="15.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="99.92"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="9" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="103" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="103" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="148.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="125.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="125.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="125.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="148.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="148.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="125.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="125.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A2:C6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="19.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="73.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="9" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="114.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="103" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="136.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="125.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A2:C14"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="14.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="97.31"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="9" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="125.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="114.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="114.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="114.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="114.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="103" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="103" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="114.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="103" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="136.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="91.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="103" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A2:C13"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="18.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="15" width="96.69"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="9" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="2" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="103" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="103" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="136.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="125.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="125.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="125.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="148.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="159.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="204.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="114.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="136.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A2:C9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="87.74"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="9" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="114.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="114.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="114.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="114.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="114.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="91.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="80.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A2:C17"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="107.65"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="125.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="114.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="103" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="148.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="114.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="114.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="125.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="103" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="114.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="114.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="114.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="148.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="91.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="125.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="125.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A2:C10"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="73.7"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="103" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="103" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="125.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="125.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="125.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="125.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="148.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="125.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A2:C6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="63.95"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="114.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="103" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="136.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="136.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A2:H8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="13.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="86.29"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="9" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="114.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="114.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="114.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="114.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="91.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="91.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A2:C16"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="107.65"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="114.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="114.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="103" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="204.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="103" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="114.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="125.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="91.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="91.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="103" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="136.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="136.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="136.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="136.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>